--- a/non-linear 3-degree regression models experimental results/e5000_Taxi__compare.xlsx
+++ b/non-linear 3-degree regression models experimental results/e5000_Taxi__compare.xlsx
@@ -629,10 +629,10 @@
         <v>0</v>
       </c>
       <c r="M2">
-        <v>120.168924331665</v>
+        <v>45.50528526306152</v>
       </c>
       <c r="N2">
-        <v>120.168924331665</v>
+        <v>45.50528526306152</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -670,13 +670,13 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>14.99795913696289</v>
+        <v>4.999637603759766</v>
       </c>
       <c r="M3">
-        <v>7.06028938293457</v>
+        <v>1.981973648071289</v>
       </c>
       <c r="N3">
-        <v>22.05824851989746</v>
+        <v>6.981611251831055</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -714,10 +714,10 @@
         <v>0</v>
       </c>
       <c r="M4">
-        <v>96.8480110168457</v>
+        <v>37.02330589294434</v>
       </c>
       <c r="N4">
-        <v>96.8480110168457</v>
+        <v>37.02330589294434</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -755,13 +755,13 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>50.53043365478516</v>
+        <v>16.00003242492676</v>
       </c>
       <c r="M5">
-        <v>47.08313941955566</v>
+        <v>16.00313186645508</v>
       </c>
       <c r="N5">
-        <v>97.61357307434082</v>
+        <v>32.00316429138184</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -799,10 +799,10 @@
         <v>0</v>
       </c>
       <c r="M6">
-        <v>90.33298492431641</v>
+        <v>34.69443321228027</v>
       </c>
       <c r="N6">
-        <v>90.33298492431641</v>
+        <v>34.69443321228027</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -840,13 +840,13 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>40.18473625183105</v>
+        <v>14.21213150024414</v>
       </c>
       <c r="M7">
-        <v>41.80383682250977</v>
+        <v>18.9812183380127</v>
       </c>
       <c r="N7">
-        <v>81.98857307434082</v>
+        <v>33.19334983825684</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -884,10 +884,10 @@
         <v>0</v>
       </c>
       <c r="M8">
-        <v>87.80026435852051</v>
+        <v>33.36477279663086</v>
       </c>
       <c r="N8">
-        <v>87.80026435852051</v>
+        <v>33.36477279663086</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -925,13 +925,13 @@
         <v>4</v>
       </c>
       <c r="L9">
-        <v>63.18569183349609</v>
+        <v>19.18649673461914</v>
       </c>
       <c r="M9">
-        <v>62.00480461120605</v>
+        <v>23.53835105895996</v>
       </c>
       <c r="N9">
-        <v>125.1904964447021</v>
+        <v>42.7248477935791</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -972,10 +972,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>506.0019493103027</v>
+        <v>194.9613094329834</v>
       </c>
       <c r="N10">
-        <v>506.0019493103027</v>
+        <v>194.9613094329834</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -1013,13 +1013,13 @@
         <v>4</v>
       </c>
       <c r="L11">
-        <v>63.58051300048828</v>
+        <v>20.22838592529297</v>
       </c>
       <c r="M11">
-        <v>224.3027687072754</v>
+        <v>64.35441970825195</v>
       </c>
       <c r="N11">
-        <v>287.8832817077637</v>
+        <v>84.58280563354492</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -1057,10 +1057,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>123.6653327941895</v>
+        <v>38.47455978393555</v>
       </c>
       <c r="N12">
-        <v>123.6653327941895</v>
+        <v>38.47455978393555</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -1098,13 +1098,13 @@
         <v>2</v>
       </c>
       <c r="L13">
-        <v>14.99485969543457</v>
+        <v>4.00090217590332</v>
       </c>
       <c r="M13">
-        <v>11.44742965698242</v>
+        <v>3.000974655151367</v>
       </c>
       <c r="N13">
-        <v>26.44228935241699</v>
+        <v>7.001876831054688</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -1142,10 +1142,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>40.56596755981445</v>
+        <v>14.00160789489746</v>
       </c>
       <c r="N14">
-        <v>40.56596755981445</v>
+        <v>14.00160789489746</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -1183,13 +1183,13 @@
         <v>2</v>
       </c>
       <c r="L15">
-        <v>12.02607154846191</v>
+        <v>5.048274993896484</v>
       </c>
       <c r="M15">
-        <v>5.981683731079102</v>
+        <v>3.061056137084961</v>
       </c>
       <c r="N15">
-        <v>18.00775527954102</v>
+        <v>8.109331130981445</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -1227,10 +1227,10 @@
         <v>0</v>
       </c>
       <c r="M16">
-        <v>39.57295417785645</v>
+        <v>12.99929618835449</v>
       </c>
       <c r="N16">
-        <v>39.57295417785645</v>
+        <v>12.99929618835449</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -1268,13 +1268,13 @@
         <v>2</v>
       </c>
       <c r="L17">
-        <v>20.80035209655762</v>
+        <v>6.430149078369141</v>
       </c>
       <c r="M17">
-        <v>22.99046516418457</v>
+        <v>4.999399185180664</v>
       </c>
       <c r="N17">
-        <v>43.79081726074219</v>
+        <v>11.4295482635498</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -1312,10 +1312,10 @@
         <v>0</v>
       </c>
       <c r="M18">
-        <v>37.00876235961914</v>
+        <v>10.32590866088867</v>
       </c>
       <c r="N18">
-        <v>37.00876235961914</v>
+        <v>10.32590866088867</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -1353,13 +1353,13 @@
         <v>2</v>
       </c>
       <c r="L19">
-        <v>61.9969367980957</v>
+        <v>18.97525787353516</v>
       </c>
       <c r="M19">
-        <v>40.67707061767578</v>
+        <v>26.0016918182373</v>
       </c>
       <c r="N19">
-        <v>102.6740074157715</v>
+        <v>44.97694969177246</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -1397,10 +1397,10 @@
         <v>0</v>
       </c>
       <c r="M20">
-        <v>33.07318687438965</v>
+        <v>15.99645614624023</v>
       </c>
       <c r="N20">
-        <v>33.07318687438965</v>
+        <v>15.99645614624023</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -1438,13 +1438,13 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>54.82864379882812</v>
+        <v>19.00124549865723</v>
       </c>
       <c r="M21">
-        <v>76.82204246520996</v>
+        <v>17.85397529602051</v>
       </c>
       <c r="N21">
-        <v>131.6506862640381</v>
+        <v>36.85522079467773</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -1485,10 +1485,10 @@
         <v>0</v>
       </c>
       <c r="M22">
-        <v>19.25373077392578</v>
+        <v>5.548238754272461</v>
       </c>
       <c r="N22">
-        <v>19.25373077392578</v>
+        <v>5.548238754272461</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -1526,13 +1526,13 @@
         <v>1</v>
       </c>
       <c r="L23">
-        <v>10.99467277526855</v>
+        <v>4.98652458190918</v>
       </c>
       <c r="M23">
-        <v>4.00853157043457</v>
+        <v>0.9953975677490234</v>
       </c>
       <c r="N23">
-        <v>15.00320434570312</v>
+        <v>5.981922149658203</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -1573,10 +1573,10 @@
         <v>0</v>
       </c>
       <c r="M24">
-        <v>13.10181617736816</v>
+        <v>4.981517791748047</v>
       </c>
       <c r="N24">
-        <v>13.10181617736816</v>
+        <v>4.981517791748047</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -1614,13 +1614,13 @@
         <v>1</v>
       </c>
       <c r="L25">
-        <v>11.99841499328613</v>
+        <v>3.97944450378418</v>
       </c>
       <c r="M25">
-        <v>3.996849060058594</v>
+        <v>1.009702682495117</v>
       </c>
       <c r="N25">
-        <v>15.99526405334473</v>
+        <v>4.989147186279297</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -1661,10 +1661,10 @@
         <v>0</v>
       </c>
       <c r="M26">
-        <v>20.00761032104492</v>
+        <v>5.998134613037109</v>
       </c>
       <c r="N26">
-        <v>20.00761032104492</v>
+        <v>5.998134613037109</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -1702,13 +1702,13 @@
         <v>1</v>
       </c>
       <c r="L27">
-        <v>14.65439796447754</v>
+        <v>6.001710891723633</v>
       </c>
       <c r="M27">
-        <v>7.003307342529297</v>
+        <v>2.002716064453125</v>
       </c>
       <c r="N27">
-        <v>21.65770530700684</v>
+        <v>8.004426956176758</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -1749,10 +1749,10 @@
         <v>0</v>
       </c>
       <c r="M28">
-        <v>14.24241065979004</v>
+        <v>7.02357292175293</v>
       </c>
       <c r="N28">
-        <v>14.24241065979004</v>
+        <v>7.02357292175293</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -1790,13 +1790,13 @@
         <v>1</v>
       </c>
       <c r="L29">
-        <v>53.96819114685059</v>
+        <v>17.50564575195312</v>
       </c>
       <c r="M29">
-        <v>4.00090217590332</v>
+        <v>1.001358032226562</v>
       </c>
       <c r="N29">
-        <v>57.96909332275391</v>
+        <v>18.50700378417969</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -1837,10 +1837,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>15.66123962402344</v>
+        <v>6.006479263305664</v>
       </c>
       <c r="N30">
-        <v>15.66123962402344</v>
+        <v>6.006479263305664</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -1878,13 +1878,13 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>70.60694694519043</v>
+        <v>15.85698127746582</v>
       </c>
       <c r="M31">
-        <v>7.066249847412109</v>
+        <v>2.000331878662109</v>
       </c>
       <c r="N31">
-        <v>77.67319679260254</v>
+        <v>17.85731315612793</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -1925,10 +1925,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>99.3194580078125</v>
+        <v>32.52673149108887</v>
       </c>
       <c r="N32">
-        <v>99.3194580078125</v>
+        <v>32.52673149108887</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -1966,13 +1966,13 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>10.00142097473145</v>
+        <v>5.06901741027832</v>
       </c>
       <c r="M33">
-        <v>3.004550933837891</v>
+        <v>0.9996891021728516</v>
       </c>
       <c r="N33">
-        <v>13.00597190856934</v>
+        <v>6.068706512451172</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -2013,10 +2013,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>74.06044006347656</v>
+        <v>24.23977851867676</v>
       </c>
       <c r="N34">
-        <v>74.06044006347656</v>
+        <v>24.23977851867676</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -2054,13 +2054,13 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>15.75565338134766</v>
+        <v>5.043268203735352</v>
       </c>
       <c r="M35">
-        <v>2.992153167724609</v>
+        <v>1.028060913085938</v>
       </c>
       <c r="N35">
-        <v>18.74780654907227</v>
+        <v>6.071329116821289</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -2101,10 +2101,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>102.8904914855957</v>
+        <v>44.92068290710449</v>
       </c>
       <c r="N36">
-        <v>102.8904914855957</v>
+        <v>44.92068290710449</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -2142,13 +2142,13 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>12.28952407836914</v>
+        <v>5.000591278076172</v>
       </c>
       <c r="M37">
-        <v>2.999782562255859</v>
+        <v>1.997709274291992</v>
       </c>
       <c r="N37">
-        <v>15.289306640625</v>
+        <v>6.998300552368164</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -2189,10 +2189,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>51.06973648071289</v>
+        <v>20.45631408691406</v>
       </c>
       <c r="N38">
-        <v>51.06973648071289</v>
+        <v>20.45631408691406</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -2230,13 +2230,13 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>19.42539215087891</v>
+        <v>5.982160568237305</v>
       </c>
       <c r="M39">
-        <v>5.018949508666992</v>
+        <v>1.062393188476562</v>
       </c>
       <c r="N39">
-        <v>24.4443416595459</v>
+        <v>7.044553756713867</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -2277,10 +2277,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>53.41553688049316</v>
+        <v>18.93782615661621</v>
       </c>
       <c r="N40">
-        <v>53.41553688049316</v>
+        <v>18.93782615661621</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -2318,13 +2318,13 @@
         <v>1</v>
       </c>
       <c r="L41">
-        <v>53.11059951782227</v>
+        <v>17.73238182067871</v>
       </c>
       <c r="M41">
-        <v>3.525495529174805</v>
+        <v>2.00963020324707</v>
       </c>
       <c r="N41">
-        <v>56.63609504699707</v>
+        <v>19.74201202392578</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -2365,10 +2365,10 @@
         <v>0</v>
       </c>
       <c r="M42">
-        <v>179.1572570800781</v>
+        <v>52.1690845489502</v>
       </c>
       <c r="N42">
-        <v>179.1572570800781</v>
+        <v>52.1690845489502</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -2406,13 +2406,13 @@
         <v>1</v>
       </c>
       <c r="L43">
-        <v>10.79654693603516</v>
+        <v>6.330013275146484</v>
       </c>
       <c r="M43">
-        <v>2.000808715820312</v>
+        <v>0.9987354278564453</v>
       </c>
       <c r="N43">
-        <v>12.79735565185547</v>
+        <v>7.32874870300293</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -2453,10 +2453,10 @@
         <v>0</v>
       </c>
       <c r="M44">
-        <v>137.5551223754883</v>
+        <v>43.59340667724609</v>
       </c>
       <c r="N44">
-        <v>137.5551223754883</v>
+        <v>43.59340667724609</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -2494,13 +2494,13 @@
         <v>1</v>
       </c>
       <c r="L45">
-        <v>19.12498474121094</v>
+        <v>5.985498428344727</v>
       </c>
       <c r="M45">
-        <v>1.51371955871582</v>
+        <v>1.000165939331055</v>
       </c>
       <c r="N45">
-        <v>20.63870429992676</v>
+        <v>6.985664367675781</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -2541,10 +2541,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>137.8026008605957</v>
+        <v>55.08303642272949</v>
       </c>
       <c r="N46">
-        <v>137.8026008605957</v>
+        <v>55.08303642272949</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -2582,13 +2582,13 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <v>13.87906074523926</v>
+        <v>4.999876022338867</v>
       </c>
       <c r="M47">
-        <v>2.000331878662109</v>
+        <v>1.003503799438477</v>
       </c>
       <c r="N47">
-        <v>15.87939262390137</v>
+        <v>6.003379821777344</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -2629,10 +2629,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>138.0269527435303</v>
+        <v>41.64719581604004</v>
       </c>
       <c r="N48">
-        <v>138.0269527435303</v>
+        <v>41.64719581604004</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -2670,13 +2670,13 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>14.6334171295166</v>
+        <v>4.147529602050781</v>
       </c>
       <c r="M49">
-        <v>2.996683120727539</v>
+        <v>1.507997512817383</v>
       </c>
       <c r="N49">
-        <v>17.63010025024414</v>
+        <v>5.655527114868164</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -2717,10 +2717,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>121.819019317627</v>
+        <v>54.79264259338379</v>
       </c>
       <c r="N50">
-        <v>121.819019317627</v>
+        <v>54.79264259338379</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -2758,13 +2758,13 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>61.99359893798828</v>
+        <v>20.13683319091797</v>
       </c>
       <c r="M51">
-        <v>2.00343132019043</v>
+        <v>0.965118408203125</v>
       </c>
       <c r="N51">
-        <v>63.99703025817871</v>
+        <v>21.10195159912109</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -2802,10 +2802,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>133.5201263427734</v>
+        <v>46.54788970947266</v>
       </c>
       <c r="N52">
-        <v>133.5201263427734</v>
+        <v>46.54788970947266</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -2843,13 +2843,13 @@
         <v>2</v>
       </c>
       <c r="L53">
-        <v>10.95485687255859</v>
+        <v>5.097389221191406</v>
       </c>
       <c r="M53">
-        <v>7.218360900878906</v>
+        <v>1.999616622924805</v>
       </c>
       <c r="N53">
-        <v>18.1732177734375</v>
+        <v>7.097005844116211</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -2887,10 +2887,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>32.46140480041504</v>
+        <v>12.80665397644043</v>
       </c>
       <c r="N54">
-        <v>32.46140480041504</v>
+        <v>12.80665397644043</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -2928,13 +2928,13 @@
         <v>2</v>
       </c>
       <c r="L55">
-        <v>15.99574089050293</v>
+        <v>7.826089859008789</v>
       </c>
       <c r="M55">
-        <v>9.000778198242188</v>
+        <v>4.071474075317383</v>
       </c>
       <c r="N55">
-        <v>24.99651908874512</v>
+        <v>11.89756393432617</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -2972,10 +2972,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>45.03631591796875</v>
+        <v>17.9448127746582</v>
       </c>
       <c r="N56">
-        <v>45.03631591796875</v>
+        <v>17.9448127746582</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -3013,13 +3013,13 @@
         <v>2</v>
       </c>
       <c r="L57">
-        <v>13.90790939331055</v>
+        <v>4.979133605957031</v>
       </c>
       <c r="M57">
-        <v>11.28625869750977</v>
+        <v>3.999233245849609</v>
       </c>
       <c r="N57">
-        <v>25.19416809082031</v>
+        <v>8.978366851806641</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -3057,10 +3057,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>41.63122177124023</v>
+        <v>12.21728324890137</v>
       </c>
       <c r="N58">
-        <v>41.63122177124023</v>
+        <v>12.21728324890137</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -3098,13 +3098,13 @@
         <v>2</v>
       </c>
       <c r="L59">
-        <v>29.91938591003418</v>
+        <v>9.620428085327148</v>
       </c>
       <c r="M59">
-        <v>23.70214462280273</v>
+        <v>9.126901626586914</v>
       </c>
       <c r="N59">
-        <v>53.62153053283691</v>
+        <v>18.74732971191406</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -3142,10 +3142,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>32.60111808776855</v>
+        <v>12.8328800201416</v>
       </c>
       <c r="N60">
-        <v>32.60111808776855</v>
+        <v>12.8328800201416</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -3183,13 +3183,13 @@
         <v>2</v>
       </c>
       <c r="L61">
-        <v>64.99791145324707</v>
+        <v>18.77355575561523</v>
       </c>
       <c r="M61">
-        <v>66.01738929748535</v>
+        <v>18.14031600952148</v>
       </c>
       <c r="N61">
-        <v>131.0153007507324</v>
+        <v>36.91387176513672</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -3230,10 +3230,10 @@
         <v>0</v>
       </c>
       <c r="M62">
-        <v>57.91997909545898</v>
+        <v>23.15688133239746</v>
       </c>
       <c r="N62">
-        <v>57.91997909545898</v>
+        <v>23.15688133239746</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -3271,13 +3271,13 @@
         <v>0</v>
       </c>
       <c r="L63">
-        <v>15.00463485717773</v>
+        <v>3.980875015258789</v>
       </c>
       <c r="M63">
         <v>0</v>
       </c>
       <c r="N63">
-        <v>15.00463485717773</v>
+        <v>3.980875015258789</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -3318,10 +3318,10 @@
         <v>0</v>
       </c>
       <c r="M64">
-        <v>74.95737075805664</v>
+        <v>22.99213409423828</v>
       </c>
       <c r="N64">
-        <v>74.95737075805664</v>
+        <v>22.99213409423828</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -3359,13 +3359,13 @@
         <v>0</v>
       </c>
       <c r="L65">
-        <v>16.46828651428223</v>
+        <v>7.234811782836914</v>
       </c>
       <c r="M65">
         <v>0</v>
       </c>
       <c r="N65">
-        <v>16.46828651428223</v>
+        <v>7.234811782836914</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -3403,10 +3403,10 @@
         <v>0</v>
       </c>
       <c r="M66">
-        <v>132.9345703125</v>
+        <v>54.16202545166016</v>
       </c>
       <c r="N66">
-        <v>132.9345703125</v>
+        <v>54.16202545166016</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -3444,13 +3444,13 @@
         <v>0</v>
       </c>
       <c r="L67">
-        <v>28.26499938964844</v>
+        <v>10.50329208374023</v>
       </c>
       <c r="M67">
         <v>0</v>
       </c>
       <c r="N67">
-        <v>28.26499938964844</v>
+        <v>10.50329208374023</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -3491,10 +3491,10 @@
         <v>0</v>
       </c>
       <c r="M68">
-        <v>84.89608764648438</v>
+        <v>34.48224067687988</v>
       </c>
       <c r="N68">
-        <v>84.89608764648438</v>
+        <v>34.48224067687988</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -3532,13 +3532,13 @@
         <v>0</v>
       </c>
       <c r="L69">
-        <v>33.01835060119629</v>
+        <v>9.414196014404297</v>
       </c>
       <c r="M69">
         <v>0</v>
       </c>
       <c r="N69">
-        <v>33.01835060119629</v>
+        <v>9.414196014404297</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -3579,10 +3579,10 @@
         <v>0</v>
       </c>
       <c r="M70">
-        <v>519.3130970001221</v>
+        <v>198.979377746582</v>
       </c>
       <c r="N70">
-        <v>519.3130970001221</v>
+        <v>198.979377746582</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -3620,13 +3620,13 @@
         <v>4</v>
       </c>
       <c r="L71">
-        <v>57.0070743560791</v>
+        <v>17.48251914978027</v>
       </c>
       <c r="M71">
-        <v>242.3434257507324</v>
+        <v>58.32958221435547</v>
       </c>
       <c r="N71">
-        <v>299.3505001068115</v>
+        <v>75.81210136413574</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -3667,10 +3667,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>114.7806644439697</v>
+        <v>35.49695014953613</v>
       </c>
       <c r="N72">
-        <v>114.7806644439697</v>
+        <v>35.49695014953613</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -3708,13 +3708,13 @@
         <v>2</v>
       </c>
       <c r="L73">
-        <v>14.10102844238281</v>
+        <v>5.006551742553711</v>
       </c>
       <c r="M73">
-        <v>14.89710807800293</v>
+        <v>2.999782562255859</v>
       </c>
       <c r="N73">
-        <v>28.99813652038574</v>
+        <v>8.00633430480957</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -3755,10 +3755,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>121.2825775146484</v>
+        <v>43.0457592010498</v>
       </c>
       <c r="N74">
-        <v>121.2825775146484</v>
+        <v>43.0457592010498</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -3796,13 +3796,13 @@
         <v>2</v>
       </c>
       <c r="L75">
-        <v>12.29500770568848</v>
+        <v>4.985332489013672</v>
       </c>
       <c r="M75">
-        <v>9.521722793579102</v>
+        <v>4.049539566040039</v>
       </c>
       <c r="N75">
-        <v>21.81673049926758</v>
+        <v>9.034872055053711</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -3843,10 +3843,10 @@
         <v>0</v>
       </c>
       <c r="M76">
-        <v>161.2696647644043</v>
+        <v>55.21059036254883</v>
       </c>
       <c r="N76">
-        <v>161.2696647644043</v>
+        <v>55.21059036254883</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -3884,13 +3884,13 @@
         <v>3</v>
       </c>
       <c r="L77">
-        <v>15.21921157836914</v>
+        <v>4.991292953491211</v>
       </c>
       <c r="M77">
-        <v>12.01677322387695</v>
+        <v>5.012035369873047</v>
       </c>
       <c r="N77">
-        <v>27.23598480224609</v>
+        <v>10.00332832336426</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -3931,10 +3931,10 @@
         <v>0</v>
       </c>
       <c r="M78">
-        <v>13.93413543701172</v>
+        <v>10.00785827636719</v>
       </c>
       <c r="N78">
-        <v>13.93413543701172</v>
+        <v>10.00785827636719</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -3972,13 +3972,13 @@
         <v>0</v>
       </c>
       <c r="L79">
-        <v>33.00619125366211</v>
+        <v>12.98832893371582</v>
       </c>
       <c r="M79">
         <v>0</v>
       </c>
       <c r="N79">
-        <v>33.00619125366211</v>
+        <v>12.98832893371582</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -4019,10 +4019,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>17.01164245605469</v>
+        <v>5.960226058959961</v>
       </c>
       <c r="N80">
-        <v>17.01164245605469</v>
+        <v>5.960226058959961</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -4060,13 +4060,13 @@
         <v>1</v>
       </c>
       <c r="L81">
-        <v>88.77944946289062</v>
+        <v>15.98763465881348</v>
       </c>
       <c r="M81">
-        <v>8.996725082397461</v>
+        <v>1.000404357910156</v>
       </c>
       <c r="N81">
-        <v>97.77617454528809</v>
+        <v>16.98803901672363</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -4107,10 +4107,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>203.9332389831543</v>
+        <v>39.22796249389648</v>
       </c>
       <c r="N82">
-        <v>203.9332389831543</v>
+        <v>39.22796249389648</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -4148,13 +4148,13 @@
         <v>1</v>
       </c>
       <c r="L83">
-        <v>31.59499168395996</v>
+        <v>4.997491836547852</v>
       </c>
       <c r="M83">
-        <v>13.16571235656738</v>
+        <v>2.999305725097656</v>
       </c>
       <c r="N83">
-        <v>44.76070404052734</v>
+        <v>7.996797561645508</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -4195,10 +4195,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>167.7925586700439</v>
+        <v>35.37106513977051</v>
       </c>
       <c r="N84">
-        <v>167.7925586700439</v>
+        <v>35.37106513977051</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -4236,13 +4236,13 @@
         <v>2</v>
       </c>
       <c r="L85">
-        <v>21.90756797790527</v>
+        <v>5.545377731323242</v>
       </c>
       <c r="M85">
-        <v>16.00503921508789</v>
+        <v>2.999067306518555</v>
       </c>
       <c r="N85">
-        <v>37.91260719299316</v>
+        <v>8.544445037841797</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -4283,10 +4283,10 @@
         <v>0</v>
       </c>
       <c r="M86">
-        <v>116.7054176330566</v>
+        <v>21.99888229370117</v>
       </c>
       <c r="N86">
-        <v>116.7054176330566</v>
+        <v>21.99888229370117</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -4324,13 +4324,13 @@
         <v>0</v>
       </c>
       <c r="L87">
-        <v>36.05294227600098</v>
+        <v>7.001638412475586</v>
       </c>
       <c r="M87">
         <v>0</v>
       </c>
       <c r="N87">
-        <v>36.05294227600098</v>
+        <v>7.001638412475586</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -4371,10 +4371,10 @@
         <v>0</v>
       </c>
       <c r="M88">
-        <v>76.90000534057617</v>
+        <v>34.03639793395996</v>
       </c>
       <c r="N88">
-        <v>76.90000534057617</v>
+        <v>34.03639793395996</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -4412,13 +4412,13 @@
         <v>0</v>
       </c>
       <c r="L89">
-        <v>65.64617156982422</v>
+        <v>20.01690864562988</v>
       </c>
       <c r="M89">
         <v>0</v>
       </c>
       <c r="N89">
-        <v>65.64617156982422</v>
+        <v>20.01690864562988</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -4456,13 +4456,13 @@
         <v>10</v>
       </c>
       <c r="L90">
-        <v>0.99945068359375</v>
+        <v>0</v>
       </c>
       <c r="M90">
-        <v>77.09598541259766</v>
+        <v>28.9008617401123</v>
       </c>
       <c r="N90">
-        <v>78.09543609619141</v>
+        <v>28.9008617401123</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -4500,13 +4500,13 @@
         <v>1</v>
       </c>
       <c r="L91">
-        <v>56.42127990722656</v>
+        <v>22.11570739746094</v>
       </c>
       <c r="M91">
-        <v>10.08152961730957</v>
+        <v>3.004074096679688</v>
       </c>
       <c r="N91">
-        <v>66.50280952453613</v>
+        <v>25.11978149414062</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -4544,10 +4544,10 @@
         <v>0</v>
       </c>
       <c r="M92">
-        <v>107.7048778533936</v>
+        <v>31.16607666015625</v>
       </c>
       <c r="N92">
-        <v>107.7048778533936</v>
+        <v>31.16607666015625</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -4585,13 +4585,13 @@
         <v>2</v>
       </c>
       <c r="L93">
-        <v>14.98126983642578</v>
+        <v>3.986120223999023</v>
       </c>
       <c r="M93">
-        <v>12.05348968505859</v>
+        <v>3.000020980834961</v>
       </c>
       <c r="N93">
-        <v>27.03475952148438</v>
+        <v>6.986141204833984</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -4629,10 +4629,10 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>116.1298751831055</v>
+        <v>29.54363822937012</v>
       </c>
       <c r="N94">
-        <v>116.1298751831055</v>
+        <v>29.54363822937012</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -4670,13 +4670,13 @@
         <v>2</v>
       </c>
       <c r="L95">
-        <v>24.09672737121582</v>
+        <v>6.667375564575195</v>
       </c>
       <c r="M95">
-        <v>18.61071586608887</v>
+        <v>5.9967041015625</v>
       </c>
       <c r="N95">
-        <v>42.70744323730469</v>
+        <v>12.6640796661377</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -4714,10 +4714,10 @@
         <v>0</v>
       </c>
       <c r="M96">
-        <v>70.24431228637695</v>
+        <v>20.58196067810059</v>
       </c>
       <c r="N96">
-        <v>70.24431228637695</v>
+        <v>20.58196067810059</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -4755,13 +4755,13 @@
         <v>2</v>
       </c>
       <c r="L97">
-        <v>24.66964721679688</v>
+        <v>9.058713912963867</v>
       </c>
       <c r="M97">
-        <v>23.26393127441406</v>
+        <v>9.058475494384766</v>
       </c>
       <c r="N97">
-        <v>47.93357849121094</v>
+        <v>18.11718940734863</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -4799,10 +4799,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>55.98235130310059</v>
+        <v>19.93465423583984</v>
       </c>
       <c r="N98">
-        <v>55.98235130310059</v>
+        <v>19.93465423583984</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -4840,13 +4840,13 @@
         <v>4</v>
       </c>
       <c r="L99">
-        <v>63.73381614685059</v>
+        <v>17.22240447998047</v>
       </c>
       <c r="M99">
-        <v>107.7010631561279</v>
+        <v>27.70376205444336</v>
       </c>
       <c r="N99">
-        <v>171.4348793029785</v>
+        <v>44.92616653442383</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -4887,10 +4887,10 @@
         <v>0</v>
       </c>
       <c r="M100">
-        <v>564.1281604766846</v>
+        <v>187.4191761016846</v>
       </c>
       <c r="N100">
-        <v>564.1281604766846</v>
+        <v>187.4191761016846</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -4928,13 +4928,13 @@
         <v>4</v>
       </c>
       <c r="L101">
-        <v>55.6938648223877</v>
+        <v>24.48391914367676</v>
       </c>
       <c r="M101">
-        <v>239.8662567138672</v>
+        <v>67.46840476989746</v>
       </c>
       <c r="N101">
-        <v>295.5601215362549</v>
+        <v>91.95232391357422</v>
       </c>
     </row>
   </sheetData>
@@ -5032,13 +5032,13 @@
         <v>2</v>
       </c>
       <c r="L2">
-        <v>14.99795913696289</v>
+        <v>4.999637603759766</v>
       </c>
       <c r="M2">
-        <v>7.06028938293457</v>
+        <v>1.981973648071289</v>
       </c>
       <c r="N2">
-        <v>22.05824851989746</v>
+        <v>6.981611251831055</v>
       </c>
     </row>
     <row r="3" spans="1:14">
@@ -5076,13 +5076,13 @@
         <v>2</v>
       </c>
       <c r="L3">
-        <v>14.99795913696289</v>
+        <v>4.999637603759766</v>
       </c>
       <c r="M3">
-        <v>7.06028938293457</v>
+        <v>1.981973648071289</v>
       </c>
       <c r="N3">
-        <v>22.05824851989746</v>
+        <v>6.981611251831055</v>
       </c>
     </row>
     <row r="4" spans="1:14">
@@ -5120,13 +5120,13 @@
         <v>2</v>
       </c>
       <c r="L4">
-        <v>50.53043365478516</v>
+        <v>16.00003242492676</v>
       </c>
       <c r="M4">
-        <v>47.08313941955566</v>
+        <v>16.00313186645508</v>
       </c>
       <c r="N4">
-        <v>97.61357307434082</v>
+        <v>32.00316429138184</v>
       </c>
     </row>
     <row r="5" spans="1:14">
@@ -5164,13 +5164,13 @@
         <v>2</v>
       </c>
       <c r="L5">
-        <v>50.53043365478516</v>
+        <v>16.00003242492676</v>
       </c>
       <c r="M5">
-        <v>47.08313941955566</v>
+        <v>16.00313186645508</v>
       </c>
       <c r="N5">
-        <v>97.61357307434082</v>
+        <v>32.00316429138184</v>
       </c>
     </row>
     <row r="6" spans="1:14">
@@ -5208,13 +5208,13 @@
         <v>2</v>
       </c>
       <c r="L6">
-        <v>40.18473625183105</v>
+        <v>14.21213150024414</v>
       </c>
       <c r="M6">
-        <v>41.80383682250977</v>
+        <v>18.9812183380127</v>
       </c>
       <c r="N6">
-        <v>81.98857307434082</v>
+        <v>33.19334983825684</v>
       </c>
     </row>
     <row r="7" spans="1:14">
@@ -5252,13 +5252,13 @@
         <v>2</v>
       </c>
       <c r="L7">
-        <v>40.18473625183105</v>
+        <v>14.21213150024414</v>
       </c>
       <c r="M7">
-        <v>41.80383682250977</v>
+        <v>18.9812183380127</v>
       </c>
       <c r="N7">
-        <v>81.98857307434082</v>
+        <v>33.19334983825684</v>
       </c>
     </row>
     <row r="8" spans="1:14">
@@ -5296,13 +5296,13 @@
         <v>4</v>
       </c>
       <c r="L8">
-        <v>63.18569183349609</v>
+        <v>19.18649673461914</v>
       </c>
       <c r="M8">
-        <v>62.00480461120605</v>
+        <v>23.53835105895996</v>
       </c>
       <c r="N8">
-        <v>125.1904964447021</v>
+        <v>42.7248477935791</v>
       </c>
     </row>
     <row r="9" spans="1:14">
@@ -5340,13 +5340,13 @@
         <v>4</v>
       </c>
       <c r="L9">
-        <v>63.18569183349609</v>
+        <v>19.18649673461914</v>
       </c>
       <c r="M9">
-        <v>62.00480461120605</v>
+        <v>23.53835105895996</v>
       </c>
       <c r="N9">
-        <v>125.1904964447021</v>
+        <v>42.7248477935791</v>
       </c>
     </row>
     <row r="10" spans="1:14">
@@ -5387,10 +5387,10 @@
         <v>0</v>
       </c>
       <c r="M10">
-        <v>506.0019493103027</v>
+        <v>194.9613094329834</v>
       </c>
       <c r="N10">
-        <v>506.0019493103027</v>
+        <v>194.9613094329834</v>
       </c>
     </row>
     <row r="11" spans="1:14">
@@ -5431,10 +5431,10 @@
         <v>0</v>
       </c>
       <c r="M11">
-        <v>506.0019493103027</v>
+        <v>194.9613094329834</v>
       </c>
       <c r="N11">
-        <v>506.0019493103027</v>
+        <v>194.9613094329834</v>
       </c>
     </row>
     <row r="12" spans="1:14">
@@ -5475,10 +5475,10 @@
         <v>0</v>
       </c>
       <c r="M12">
-        <v>506.0019493103027</v>
+        <v>194.9613094329834</v>
       </c>
       <c r="N12">
-        <v>506.0019493103027</v>
+        <v>194.9613094329834</v>
       </c>
     </row>
     <row r="13" spans="1:14">
@@ -5519,10 +5519,10 @@
         <v>0</v>
       </c>
       <c r="M13">
-        <v>506.0019493103027</v>
+        <v>194.9613094329834</v>
       </c>
       <c r="N13">
-        <v>506.0019493103027</v>
+        <v>194.9613094329834</v>
       </c>
     </row>
     <row r="14" spans="1:14">
@@ -5563,10 +5563,10 @@
         <v>0</v>
       </c>
       <c r="M14">
-        <v>506.0019493103027</v>
+        <v>194.9613094329834</v>
       </c>
       <c r="N14">
-        <v>506.0019493103027</v>
+        <v>194.9613094329834</v>
       </c>
     </row>
     <row r="15" spans="1:14">
@@ -5607,10 +5607,10 @@
         <v>0</v>
       </c>
       <c r="M15">
-        <v>506.0019493103027</v>
+        <v>194.9613094329834</v>
       </c>
       <c r="N15">
-        <v>506.0019493103027</v>
+        <v>194.9613094329834</v>
       </c>
     </row>
     <row r="16" spans="1:14">
@@ -5648,13 +5648,13 @@
         <v>4</v>
       </c>
       <c r="L16">
-        <v>63.58051300048828</v>
+        <v>20.22838592529297</v>
       </c>
       <c r="M16">
-        <v>224.3027687072754</v>
+        <v>64.35441970825195</v>
       </c>
       <c r="N16">
-        <v>287.8832817077637</v>
+        <v>84.58280563354492</v>
       </c>
     </row>
     <row r="17" spans="1:14">
@@ -5692,13 +5692,13 @@
         <v>4</v>
       </c>
       <c r="L17">
-        <v>63.58051300048828</v>
+        <v>20.22838592529297</v>
       </c>
       <c r="M17">
-        <v>224.3027687072754</v>
+        <v>64.35441970825195</v>
       </c>
       <c r="N17">
-        <v>287.8832817077637</v>
+        <v>84.58280563354492</v>
       </c>
     </row>
     <row r="18" spans="1:14">
@@ -5736,13 +5736,13 @@
         <v>4</v>
       </c>
       <c r="L18">
-        <v>63.58051300048828</v>
+        <v>20.22838592529297</v>
       </c>
       <c r="M18">
-        <v>224.3027687072754</v>
+        <v>64.35441970825195</v>
       </c>
       <c r="N18">
-        <v>287.8832817077637</v>
+        <v>84.58280563354492</v>
       </c>
     </row>
     <row r="19" spans="1:14">
@@ -5780,13 +5780,13 @@
         <v>4</v>
       </c>
       <c r="L19">
-        <v>63.58051300048828</v>
+        <v>20.22838592529297</v>
       </c>
       <c r="M19">
-        <v>224.3027687072754</v>
+        <v>64.35441970825195</v>
       </c>
       <c r="N19">
-        <v>287.8832817077637</v>
+        <v>84.58280563354492</v>
       </c>
     </row>
     <row r="20" spans="1:14">
@@ -5824,13 +5824,13 @@
         <v>2</v>
       </c>
       <c r="L20">
-        <v>14.99485969543457</v>
+        <v>4.00090217590332</v>
       </c>
       <c r="M20">
-        <v>11.44742965698242</v>
+        <v>3.000974655151367</v>
       </c>
       <c r="N20">
-        <v>26.44228935241699</v>
+        <v>7.001876831054688</v>
       </c>
     </row>
     <row r="21" spans="1:14">
@@ -5868,13 +5868,13 @@
         <v>2</v>
       </c>
       <c r="L21">
-        <v>14.99485969543457</v>
+        <v>4.00090217590332</v>
       </c>
       <c r="M21">
-        <v>11.44742965698242</v>
+        <v>3.000974655151367</v>
       </c>
       <c r="N21">
-        <v>26.44228935241699</v>
+        <v>7.001876831054688</v>
       </c>
     </row>
     <row r="22" spans="1:14">
@@ -5912,13 +5912,13 @@
         <v>2</v>
       </c>
       <c r="L22">
-        <v>12.02607154846191</v>
+        <v>5.048274993896484</v>
       </c>
       <c r="M22">
-        <v>5.981683731079102</v>
+        <v>3.061056137084961</v>
       </c>
       <c r="N22">
-        <v>18.00775527954102</v>
+        <v>8.109331130981445</v>
       </c>
     </row>
     <row r="23" spans="1:14">
@@ -5956,13 +5956,13 @@
         <v>2</v>
       </c>
       <c r="L23">
-        <v>12.02607154846191</v>
+        <v>5.048274993896484</v>
       </c>
       <c r="M23">
-        <v>5.981683731079102</v>
+        <v>3.061056137084961</v>
       </c>
       <c r="N23">
-        <v>18.00775527954102</v>
+        <v>8.109331130981445</v>
       </c>
     </row>
     <row r="24" spans="1:14">
@@ -6000,13 +6000,13 @@
         <v>2</v>
       </c>
       <c r="L24">
-        <v>20.80035209655762</v>
+        <v>6.430149078369141</v>
       </c>
       <c r="M24">
-        <v>22.99046516418457</v>
+        <v>4.999399185180664</v>
       </c>
       <c r="N24">
-        <v>43.79081726074219</v>
+        <v>11.4295482635498</v>
       </c>
     </row>
     <row r="25" spans="1:14">
@@ -6044,13 +6044,13 @@
         <v>2</v>
       </c>
       <c r="L25">
-        <v>20.80035209655762</v>
+        <v>6.430149078369141</v>
       </c>
       <c r="M25">
-        <v>22.99046516418457</v>
+        <v>4.999399185180664</v>
       </c>
       <c r="N25">
-        <v>43.79081726074219</v>
+        <v>11.4295482635498</v>
       </c>
     </row>
     <row r="26" spans="1:14">
@@ -6088,13 +6088,13 @@
         <v>2</v>
       </c>
       <c r="L26">
-        <v>61.9969367980957</v>
+        <v>18.97525787353516</v>
       </c>
       <c r="M26">
-        <v>40.67707061767578</v>
+        <v>26.0016918182373</v>
       </c>
       <c r="N26">
-        <v>102.6740074157715</v>
+        <v>44.97694969177246</v>
       </c>
     </row>
     <row r="27" spans="1:14">
@@ -6132,13 +6132,13 @@
         <v>2</v>
       </c>
       <c r="L27">
-        <v>61.9969367980957</v>
+        <v>18.97525787353516</v>
       </c>
       <c r="M27">
-        <v>40.67707061767578</v>
+        <v>26.0016918182373</v>
       </c>
       <c r="N27">
-        <v>102.6740074157715</v>
+        <v>44.97694969177246</v>
       </c>
     </row>
     <row r="28" spans="1:14">
@@ -6176,13 +6176,13 @@
         <v>2</v>
       </c>
       <c r="L28">
-        <v>54.82864379882812</v>
+        <v>19.00124549865723</v>
       </c>
       <c r="M28">
-        <v>76.82204246520996</v>
+        <v>17.85397529602051</v>
       </c>
       <c r="N28">
-        <v>131.6506862640381</v>
+        <v>36.85522079467773</v>
       </c>
     </row>
     <row r="29" spans="1:14">
@@ -6220,13 +6220,13 @@
         <v>2</v>
       </c>
       <c r="L29">
-        <v>54.82864379882812</v>
+        <v>19.00124549865723</v>
       </c>
       <c r="M29">
-        <v>76.82204246520996</v>
+        <v>17.85397529602051</v>
       </c>
       <c r="N29">
-        <v>131.6506862640381</v>
+        <v>36.85522079467773</v>
       </c>
     </row>
     <row r="30" spans="1:14">
@@ -6267,10 +6267,10 @@
         <v>0</v>
       </c>
       <c r="M30">
-        <v>19.25373077392578</v>
+        <v>5.548238754272461</v>
       </c>
       <c r="N30">
-        <v>19.25373077392578</v>
+        <v>5.548238754272461</v>
       </c>
     </row>
     <row r="31" spans="1:14">
@@ -6308,13 +6308,13 @@
         <v>1</v>
       </c>
       <c r="L31">
-        <v>10.99467277526855</v>
+        <v>4.98652458190918</v>
       </c>
       <c r="M31">
-        <v>4.00853157043457</v>
+        <v>0.9953975677490234</v>
       </c>
       <c r="N31">
-        <v>15.00320434570312</v>
+        <v>5.981922149658203</v>
       </c>
     </row>
     <row r="32" spans="1:14">
@@ -6355,10 +6355,10 @@
         <v>0</v>
       </c>
       <c r="M32">
-        <v>13.10181617736816</v>
+        <v>4.981517791748047</v>
       </c>
       <c r="N32">
-        <v>13.10181617736816</v>
+        <v>4.981517791748047</v>
       </c>
     </row>
     <row r="33" spans="1:14">
@@ -6396,13 +6396,13 @@
         <v>1</v>
       </c>
       <c r="L33">
-        <v>11.99841499328613</v>
+        <v>3.97944450378418</v>
       </c>
       <c r="M33">
-        <v>3.996849060058594</v>
+        <v>1.009702682495117</v>
       </c>
       <c r="N33">
-        <v>15.99526405334473</v>
+        <v>4.989147186279297</v>
       </c>
     </row>
     <row r="34" spans="1:14">
@@ -6443,10 +6443,10 @@
         <v>0</v>
       </c>
       <c r="M34">
-        <v>20.00761032104492</v>
+        <v>5.998134613037109</v>
       </c>
       <c r="N34">
-        <v>20.00761032104492</v>
+        <v>5.998134613037109</v>
       </c>
     </row>
     <row r="35" spans="1:14">
@@ -6484,13 +6484,13 @@
         <v>1</v>
       </c>
       <c r="L35">
-        <v>14.65439796447754</v>
+        <v>6.001710891723633</v>
       </c>
       <c r="M35">
-        <v>7.003307342529297</v>
+        <v>2.002716064453125</v>
       </c>
       <c r="N35">
-        <v>21.65770530700684</v>
+        <v>8.004426956176758</v>
       </c>
     </row>
     <row r="36" spans="1:14">
@@ -6531,10 +6531,10 @@
         <v>0</v>
       </c>
       <c r="M36">
-        <v>14.24241065979004</v>
+        <v>7.02357292175293</v>
       </c>
       <c r="N36">
-        <v>14.24241065979004</v>
+        <v>7.02357292175293</v>
       </c>
     </row>
     <row r="37" spans="1:14">
@@ -6572,13 +6572,13 @@
         <v>1</v>
       </c>
       <c r="L37">
-        <v>53.96819114685059</v>
+        <v>17.50564575195312</v>
       </c>
       <c r="M37">
-        <v>4.00090217590332</v>
+        <v>1.001358032226562</v>
       </c>
       <c r="N37">
-        <v>57.96909332275391</v>
+        <v>18.50700378417969</v>
       </c>
     </row>
     <row r="38" spans="1:14">
@@ -6619,10 +6619,10 @@
         <v>0</v>
       </c>
       <c r="M38">
-        <v>15.66123962402344</v>
+        <v>6.006479263305664</v>
       </c>
       <c r="N38">
-        <v>15.66123962402344</v>
+        <v>6.006479263305664</v>
       </c>
     </row>
     <row r="39" spans="1:14">
@@ -6660,13 +6660,13 @@
         <v>1</v>
       </c>
       <c r="L39">
-        <v>70.60694694519043</v>
+        <v>15.85698127746582</v>
       </c>
       <c r="M39">
-        <v>7.066249847412109</v>
+        <v>2.000331878662109</v>
       </c>
       <c r="N39">
-        <v>77.67319679260254</v>
+        <v>17.85731315612793</v>
       </c>
     </row>
     <row r="40" spans="1:14">
@@ -6707,10 +6707,10 @@
         <v>0</v>
       </c>
       <c r="M40">
-        <v>99.3194580078125</v>
+        <v>32.52673149108887</v>
       </c>
       <c r="N40">
-        <v>99.3194580078125</v>
+        <v>32.52673149108887</v>
       </c>
     </row>
     <row r="41" spans="1:14">
@@ -6751,10 +6751,10 @@
         <v>0</v>
       </c>
       <c r="M41">
-        <v>99.3194580078125</v>
+        <v>32.52673149108887</v>
       </c>
       <c r="N41">
-        <v>99.3194580078125</v>
+        <v>32.52673149108887</v>
       </c>
     </row>
     <row r="42" spans="1:14">
@@ -6792,13 +6792,13 @@
         <v>1</v>
       </c>
       <c r="L42">
-        <v>10.00142097473145</v>
+        <v>5.06901741027832</v>
       </c>
       <c r="M42">
-        <v>3.004550933837891</v>
+        <v>0.9996891021728516</v>
       </c>
       <c r="N42">
-        <v>13.00597190856934</v>
+        <v>6.068706512451172</v>
       </c>
     </row>
     <row r="43" spans="1:14">
@@ -6839,10 +6839,10 @@
         <v>0</v>
       </c>
       <c r="M43">
-        <v>74.06044006347656</v>
+        <v>24.23977851867676</v>
       </c>
       <c r="N43">
-        <v>74.06044006347656</v>
+        <v>24.23977851867676</v>
       </c>
     </row>
     <row r="44" spans="1:14">
@@ -6880,13 +6880,13 @@
         <v>1</v>
       </c>
       <c r="L44">
-        <v>15.75565338134766</v>
+        <v>5.043268203735352</v>
       </c>
       <c r="M44">
-        <v>2.992153167724609</v>
+        <v>1.028060913085938</v>
       </c>
       <c r="N44">
-        <v>18.74780654907227</v>
+        <v>6.071329116821289</v>
       </c>
     </row>
     <row r="45" spans="1:14">
@@ -6927,10 +6927,10 @@
         <v>0</v>
       </c>
       <c r="M45">
-        <v>102.8904914855957</v>
+        <v>44.92068290710449</v>
       </c>
       <c r="N45">
-        <v>102.8904914855957</v>
+        <v>44.92068290710449</v>
       </c>
     </row>
     <row r="46" spans="1:14">
@@ -6971,10 +6971,10 @@
         <v>0</v>
       </c>
       <c r="M46">
-        <v>102.8904914855957</v>
+        <v>44.92068290710449</v>
       </c>
       <c r="N46">
-        <v>102.8904914855957</v>
+        <v>44.92068290710449</v>
       </c>
     </row>
     <row r="47" spans="1:14">
@@ -7012,13 +7012,13 @@
         <v>1</v>
       </c>
       <c r="L47">
-        <v>12.28952407836914</v>
+        <v>5.000591278076172</v>
       </c>
       <c r="M47">
-        <v>2.999782562255859</v>
+        <v>1.997709274291992</v>
       </c>
       <c r="N47">
-        <v>15.289306640625</v>
+        <v>6.998300552368164</v>
       </c>
     </row>
     <row r="48" spans="1:14">
@@ -7059,10 +7059,10 @@
         <v>0</v>
       </c>
       <c r="M48">
-        <v>51.06973648071289</v>
+        <v>20.45631408691406</v>
       </c>
       <c r="N48">
-        <v>51.06973648071289</v>
+        <v>20.45631408691406</v>
       </c>
     </row>
     <row r="49" spans="1:14">
@@ -7100,13 +7100,13 @@
         <v>1</v>
       </c>
       <c r="L49">
-        <v>19.42539215087891</v>
+        <v>5.982160568237305</v>
       </c>
       <c r="M49">
-        <v>5.018949508666992</v>
+        <v>1.062393188476562</v>
       </c>
       <c r="N49">
-        <v>24.4443416595459</v>
+        <v>7.044553756713867</v>
       </c>
     </row>
     <row r="50" spans="1:14">
@@ -7147,10 +7147,10 @@
         <v>0</v>
       </c>
       <c r="M50">
-        <v>53.41553688049316</v>
+        <v>18.93782615661621</v>
       </c>
       <c r="N50">
-        <v>53.41553688049316</v>
+        <v>18.93782615661621</v>
       </c>
     </row>
     <row r="51" spans="1:14">
@@ -7188,13 +7188,13 @@
         <v>1</v>
       </c>
       <c r="L51">
-        <v>53.11059951782227</v>
+        <v>17.73238182067871</v>
       </c>
       <c r="M51">
-        <v>3.525495529174805</v>
+        <v>2.00963020324707</v>
       </c>
       <c r="N51">
-        <v>56.63609504699707</v>
+        <v>19.74201202392578</v>
       </c>
     </row>
     <row r="52" spans="1:14">
@@ -7235,10 +7235,10 @@
         <v>0</v>
       </c>
       <c r="M52">
-        <v>179.1572570800781</v>
+        <v>52.1690845489502</v>
       </c>
       <c r="N52">
-        <v>179.1572570800781</v>
+        <v>52.1690845489502</v>
       </c>
     </row>
     <row r="53" spans="1:14">
@@ -7276,13 +7276,13 @@
         <v>1</v>
       </c>
       <c r="L53">
-        <v>10.79654693603516</v>
+        <v>6.330013275146484</v>
       </c>
       <c r="M53">
-        <v>2.000808715820312</v>
+        <v>0.9987354278564453</v>
       </c>
       <c r="N53">
-        <v>12.79735565185547</v>
+        <v>7.32874870300293</v>
       </c>
     </row>
     <row r="54" spans="1:14">
@@ -7323,10 +7323,10 @@
         <v>0</v>
       </c>
       <c r="M54">
-        <v>137.5551223754883</v>
+        <v>43.59340667724609</v>
       </c>
       <c r="N54">
-        <v>137.5551223754883</v>
+        <v>43.59340667724609</v>
       </c>
     </row>
     <row r="55" spans="1:14">
@@ -7364,13 +7364,13 @@
         <v>1</v>
       </c>
       <c r="L55">
-        <v>19.12498474121094</v>
+        <v>5.985498428344727</v>
       </c>
       <c r="M55">
-        <v>1.51371955871582</v>
+        <v>1.000165939331055</v>
       </c>
       <c r="N55">
-        <v>20.63870429992676</v>
+        <v>6.985664367675781</v>
       </c>
     </row>
     <row r="56" spans="1:14">
@@ -7411,10 +7411,10 @@
         <v>0</v>
       </c>
       <c r="M56">
-        <v>137.8026008605957</v>
+        <v>55.08303642272949</v>
       </c>
       <c r="N56">
-        <v>137.8026008605957</v>
+        <v>55.08303642272949</v>
       </c>
     </row>
     <row r="57" spans="1:14">
@@ -7452,13 +7452,13 @@
         <v>1</v>
       </c>
       <c r="L57">
-        <v>13.87906074523926</v>
+        <v>4.999876022338867</v>
       </c>
       <c r="M57">
-        <v>2.000331878662109</v>
+        <v>1.003503799438477</v>
       </c>
       <c r="N57">
-        <v>15.87939262390137</v>
+        <v>6.003379821777344</v>
       </c>
     </row>
     <row r="58" spans="1:14">
@@ -7499,10 +7499,10 @@
         <v>0</v>
       </c>
       <c r="M58">
-        <v>138.0269527435303</v>
+        <v>41.64719581604004</v>
       </c>
       <c r="N58">
-        <v>138.0269527435303</v>
+        <v>41.64719581604004</v>
       </c>
     </row>
     <row r="59" spans="1:14">
@@ -7540,13 +7540,13 @@
         <v>1</v>
       </c>
       <c r="L59">
-        <v>14.6334171295166</v>
+        <v>4.147529602050781</v>
       </c>
       <c r="M59">
-        <v>2.996683120727539</v>
+        <v>1.507997512817383</v>
       </c>
       <c r="N59">
-        <v>17.63010025024414</v>
+        <v>5.655527114868164</v>
       </c>
     </row>
     <row r="60" spans="1:14">
@@ -7587,10 +7587,10 @@
         <v>0</v>
       </c>
       <c r="M60">
-        <v>121.819019317627</v>
+        <v>54.79264259338379</v>
       </c>
       <c r="N60">
-        <v>121.819019317627</v>
+        <v>54.79264259338379</v>
       </c>
     </row>
     <row r="61" spans="1:14">
@@ -7628,13 +7628,13 @@
         <v>1</v>
       </c>
       <c r="L61">
-        <v>61.99359893798828</v>
+        <v>20.13683319091797</v>
       </c>
       <c r="M61">
-        <v>2.00343132019043</v>
+        <v>0.965118408203125</v>
       </c>
       <c r="N61">
-        <v>63.99703025817871</v>
+        <v>21.10195159912109</v>
       </c>
     </row>
     <row r="62" spans="1:14">
@@ -7672,13 +7672,13 @@
         <v>2</v>
       </c>
       <c r="L62">
-        <v>10.95485687255859</v>
+        <v>5.097389221191406</v>
       </c>
       <c r="M62">
-        <v>7.218360900878906</v>
+        <v>1.999616622924805</v>
       </c>
       <c r="N62">
-        <v>18.1732177734375</v>
+        <v>7.097005844116211</v>
       </c>
     </row>
     <row r="63" spans="1:14">
@@ -7716,13 +7716,13 @@
         <v>2</v>
       </c>
       <c r="L63">
-        <v>10.95485687255859</v>
+        <v>5.097389221191406</v>
       </c>
       <c r="M63">
-        <v>7.218360900878906</v>
+        <v>1.999616622924805</v>
       </c>
       <c r="N63">
-        <v>18.1732177734375</v>
+        <v>7.097005844116211</v>
       </c>
     </row>
     <row r="64" spans="1:14">
@@ -7760,13 +7760,13 @@
         <v>2</v>
       </c>
       <c r="L64">
-        <v>15.99574089050293</v>
+        <v>7.826089859008789</v>
       </c>
       <c r="M64">
-        <v>9.000778198242188</v>
+        <v>4.071474075317383</v>
       </c>
       <c r="N64">
-        <v>24.99651908874512</v>
+        <v>11.89756393432617</v>
       </c>
     </row>
     <row r="65" spans="1:14">
@@ -7804,13 +7804,13 @@
         <v>2</v>
       </c>
       <c r="L65">
-        <v>15.99574089050293</v>
+        <v>7.826089859008789</v>
       </c>
       <c r="M65">
-        <v>9.000778198242188</v>
+        <v>4.071474075317383</v>
       </c>
       <c r="N65">
-        <v>24.99651908874512</v>
+        <v>11.89756393432617</v>
       </c>
     </row>
     <row r="66" spans="1:14">
@@ -7848,13 +7848,13 @@
         <v>2</v>
       </c>
       <c r="L66">
-        <v>13.90790939331055</v>
+        <v>4.979133605957031</v>
       </c>
       <c r="M66">
-        <v>11.28625869750977</v>
+        <v>3.999233245849609</v>
       </c>
       <c r="N66">
-        <v>25.19416809082031</v>
+        <v>8.978366851806641</v>
       </c>
     </row>
     <row r="67" spans="1:14">
@@ -7892,13 +7892,13 @@
         <v>2</v>
       </c>
       <c r="L67">
-        <v>13.90790939331055</v>
+        <v>4.979133605957031</v>
       </c>
       <c r="M67">
-        <v>11.28625869750977</v>
+        <v>3.999233245849609</v>
       </c>
       <c r="N67">
-        <v>25.19416809082031</v>
+        <v>8.978366851806641</v>
       </c>
     </row>
     <row r="68" spans="1:14">
@@ -7936,13 +7936,13 @@
         <v>2</v>
       </c>
       <c r="L68">
-        <v>29.91938591003418</v>
+        <v>9.620428085327148</v>
       </c>
       <c r="M68">
-        <v>23.70214462280273</v>
+        <v>9.126901626586914</v>
       </c>
       <c r="N68">
-        <v>53.62153053283691</v>
+        <v>18.74732971191406</v>
       </c>
     </row>
     <row r="69" spans="1:14">
@@ -7980,13 +7980,13 @@
         <v>2</v>
       </c>
       <c r="L69">
-        <v>29.91938591003418</v>
+        <v>9.620428085327148</v>
       </c>
       <c r="M69">
-        <v>23.70214462280273</v>
+        <v>9.126901626586914</v>
       </c>
       <c r="N69">
-        <v>53.62153053283691</v>
+        <v>18.74732971191406</v>
       </c>
     </row>
     <row r="70" spans="1:14">
@@ -8024,13 +8024,13 @@
         <v>2</v>
       </c>
       <c r="L70">
-        <v>64.99791145324707</v>
+        <v>18.77355575561523</v>
       </c>
       <c r="M70">
-        <v>66.01738929748535</v>
+        <v>18.14031600952148</v>
       </c>
       <c r="N70">
-        <v>131.0153007507324</v>
+        <v>36.91387176513672</v>
       </c>
     </row>
     <row r="71" spans="1:14">
@@ -8068,13 +8068,13 @@
         <v>2</v>
       </c>
       <c r="L71">
-        <v>64.99791145324707</v>
+        <v>18.77355575561523</v>
       </c>
       <c r="M71">
-        <v>66.01738929748535</v>
+        <v>18.14031600952148</v>
       </c>
       <c r="N71">
-        <v>131.0153007507324</v>
+        <v>36.91387176513672</v>
       </c>
     </row>
     <row r="72" spans="1:14">
@@ -8115,10 +8115,10 @@
         <v>0</v>
       </c>
       <c r="M72">
-        <v>57.91997909545898</v>
+        <v>23.15688133239746</v>
       </c>
       <c r="N72">
-        <v>57.91997909545898</v>
+        <v>23.15688133239746</v>
       </c>
     </row>
     <row r="73" spans="1:14">
@@ -8156,13 +8156,13 @@
         <v>0</v>
       </c>
       <c r="L73">
-        <v>15.00463485717773</v>
+        <v>3.980875015258789</v>
       </c>
       <c r="M73">
         <v>0</v>
       </c>
       <c r="N73">
-        <v>15.00463485717773</v>
+        <v>3.980875015258789</v>
       </c>
     </row>
     <row r="74" spans="1:14">
@@ -8203,10 +8203,10 @@
         <v>0</v>
       </c>
       <c r="M74">
-        <v>74.95737075805664</v>
+        <v>22.99213409423828</v>
       </c>
       <c r="N74">
-        <v>74.95737075805664</v>
+        <v>22.99213409423828</v>
       </c>
     </row>
     <row r="75" spans="1:14">
@@ -8244,13 +8244,13 @@
         <v>0</v>
       </c>
       <c r="L75">
-        <v>16.46828651428223</v>
+        <v>7.234811782836914</v>
       </c>
       <c r="M75">
         <v>0</v>
       </c>
       <c r="N75">
-        <v>16.46828651428223</v>
+        <v>7.234811782836914</v>
       </c>
     </row>
     <row r="76" spans="1:14">
@@ -8288,13 +8288,13 @@
         <v>0</v>
       </c>
       <c r="L76">
-        <v>28.26499938964844</v>
+        <v>10.50329208374023</v>
       </c>
       <c r="M76">
         <v>0</v>
       </c>
       <c r="N76">
-        <v>28.26499938964844</v>
+        <v>10.50329208374023</v>
       </c>
     </row>
     <row r="77" spans="1:14">
@@ -8335,10 +8335,10 @@
         <v>0</v>
       </c>
       <c r="M77">
-        <v>84.89608764648438</v>
+        <v>34.48224067687988</v>
       </c>
       <c r="N77">
-        <v>84.89608764648438</v>
+        <v>34.48224067687988</v>
       </c>
     </row>
     <row r="78" spans="1:14">
@@ -8376,13 +8376,13 @@
         <v>0</v>
       </c>
       <c r="L78">
-        <v>33.01835060119629</v>
+        <v>9.414196014404297</v>
       </c>
       <c r="M78">
         <v>0</v>
       </c>
       <c r="N78">
-        <v>33.01835060119629</v>
+        <v>9.414196014404297</v>
       </c>
     </row>
     <row r="79" spans="1:14">
@@ -8423,10 +8423,10 @@
         <v>0</v>
       </c>
       <c r="M79">
-        <v>519.3130970001221</v>
+        <v>198.979377746582</v>
       </c>
       <c r="N79">
-        <v>519.3130970001221</v>
+        <v>198.979377746582</v>
       </c>
     </row>
     <row r="80" spans="1:14">
@@ -8467,10 +8467,10 @@
         <v>0</v>
       </c>
       <c r="M80">
-        <v>519.3130970001221</v>
+        <v>198.979377746582</v>
       </c>
       <c r="N80">
-        <v>519.3130970001221</v>
+        <v>198.979377746582</v>
       </c>
     </row>
     <row r="81" spans="1:14">
@@ -8511,10 +8511,10 @@
         <v>0</v>
       </c>
       <c r="M81">
-        <v>519.3130970001221</v>
+        <v>198.979377746582</v>
       </c>
       <c r="N81">
-        <v>519.3130970001221</v>
+        <v>198.979377746582</v>
       </c>
     </row>
     <row r="82" spans="1:14">
@@ -8555,10 +8555,10 @@
         <v>0</v>
       </c>
       <c r="M82">
-        <v>519.3130970001221</v>
+        <v>198.979377746582</v>
       </c>
       <c r="N82">
-        <v>519.3130970001221</v>
+        <v>198.979377746582</v>
       </c>
     </row>
     <row r="83" spans="1:14">
@@ -8599,10 +8599,10 @@
         <v>0</v>
       </c>
       <c r="M83">
-        <v>519.3130970001221</v>
+        <v>198.979377746582</v>
       </c>
       <c r="N83">
-        <v>519.3130970001221</v>
+        <v>198.979377746582</v>
       </c>
     </row>
     <row r="84" spans="1:14">
@@ -8643,10 +8643,10 @@
         <v>0</v>
       </c>
       <c r="M84">
-        <v>519.3130970001221</v>
+        <v>198.979377746582</v>
       </c>
       <c r="N84">
-        <v>519.3130970001221</v>
+        <v>198.979377746582</v>
       </c>
     </row>
     <row r="85" spans="1:14">
@@ -8684,13 +8684,13 @@
         <v>4</v>
       </c>
       <c r="L85">
-        <v>57.0070743560791</v>
+        <v>17.48251914978027</v>
       </c>
       <c r="M85">
-        <v>242.3434257507324</v>
+        <v>58.32958221435547</v>
       </c>
       <c r="N85">
-        <v>299.3505001068115</v>
+        <v>75.81210136413574</v>
       </c>
     </row>
     <row r="86" spans="1:14">
@@ -8728,13 +8728,13 @@
         <v>4</v>
       </c>
       <c r="L86">
-        <v>57.0070743560791</v>
+        <v>17.48251914978027</v>
       </c>
       <c r="M86">
-        <v>242.3434257507324</v>
+        <v>58.32958221435547</v>
       </c>
       <c r="N86">
-        <v>299.3505001068115</v>
+        <v>75.81210136413574</v>
       </c>
     </row>
     <row r="87" spans="1:14">
@@ -8772,13 +8772,13 @@
         <v>4</v>
       </c>
       <c r="L87">
-        <v>57.0070743560791</v>
+        <v>17.48251914978027</v>
       </c>
       <c r="M87">
-        <v>242.3434257507324</v>
+        <v>58.32958221435547</v>
       </c>
       <c r="N87">
-        <v>299.3505001068115</v>
+        <v>75.81210136413574</v>
       </c>
     </row>
     <row r="88" spans="1:14">
@@ -8816,13 +8816,13 @@
         <v>4</v>
       </c>
       <c r="L88">
-        <v>57.0070743560791</v>
+        <v>17.48251914978027</v>
       </c>
       <c r="M88">
-        <v>242.3434257507324</v>
+        <v>58.32958221435547</v>
       </c>
       <c r="N88">
-        <v>299.3505001068115</v>
+        <v>75.81210136413574</v>
       </c>
     </row>
     <row r="89" spans="1:14">
@@ -8863,10 +8863,10 @@
         <v>0</v>
       </c>
       <c r="M89">
-        <v>114.7806644439697</v>
+        <v>35.49695014953613</v>
       </c>
       <c r="N89">
-        <v>114.7806644439697</v>
+        <v>35.49695014953613</v>
       </c>
     </row>
     <row r="90" spans="1:14">
@@ -8907,10 +8907,10 @@
         <v>0</v>
       </c>
       <c r="M90">
-        <v>114.7806644439697</v>
+        <v>35.49695014953613</v>
       </c>
       <c r="N90">
-        <v>114.7806644439697</v>
+        <v>35.49695014953613</v>
       </c>
     </row>
     <row r="91" spans="1:14">
@@ -8948,13 +8948,13 @@
         <v>2</v>
       </c>
       <c r="L91">
-        <v>14.10102844238281</v>
+        <v>5.006551742553711</v>
       </c>
       <c r="M91">
-        <v>14.89710807800293</v>
+        <v>2.999782562255859</v>
       </c>
       <c r="N91">
-        <v>28.99813652038574</v>
+        <v>8.00633430480957</v>
       </c>
     </row>
     <row r="92" spans="1:14">
@@ -8992,13 +8992,13 @@
         <v>2</v>
       </c>
       <c r="L92">
-        <v>14.10102844238281</v>
+        <v>5.006551742553711</v>
       </c>
       <c r="M92">
-        <v>14.89710807800293</v>
+        <v>2.999782562255859</v>
       </c>
       <c r="N92">
-        <v>28.99813652038574</v>
+        <v>8.00633430480957</v>
       </c>
     </row>
     <row r="93" spans="1:14">
@@ -9039,10 +9039,10 @@
         <v>0</v>
       </c>
       <c r="M93">
-        <v>121.2825775146484</v>
+        <v>43.0457592010498</v>
       </c>
       <c r="N93">
-        <v>121.2825775146484</v>
+        <v>43.0457592010498</v>
       </c>
     </row>
     <row r="94" spans="1:14">
@@ -9083,10 +9083,10 @@
         <v>0</v>
       </c>
       <c r="M94">
-        <v>121.2825775146484</v>
+        <v>43.0457592010498</v>
       </c>
       <c r="N94">
-        <v>121.2825775146484</v>
+        <v>43.0457592010498</v>
       </c>
     </row>
     <row r="95" spans="1:14">
@@ -9124,13 +9124,13 @@
         <v>2</v>
       </c>
       <c r="L95">
-        <v>12.29500770568848</v>
+        <v>4.985332489013672</v>
       </c>
       <c r="M95">
-        <v>9.521722793579102</v>
+        <v>4.049539566040039</v>
       </c>
       <c r="N95">
-        <v>21.81673049926758</v>
+        <v>9.034872055053711</v>
       </c>
     </row>
     <row r="96" spans="1:14">
@@ -9168,13 +9168,13 @@
         <v>2</v>
       </c>
       <c r="L96">
-        <v>12.29500770568848</v>
+        <v>4.985332489013672</v>
       </c>
       <c r="M96">
-        <v>9.521722793579102</v>
+        <v>4.049539566040039</v>
       </c>
       <c r="N96">
-        <v>21.81673049926758</v>
+        <v>9.034872055053711</v>
       </c>
     </row>
     <row r="97" spans="1:14">
@@ -9215,10 +9215,10 @@
         <v>0</v>
       </c>
       <c r="M97">
-        <v>161.2696647644043</v>
+        <v>55.21059036254883</v>
       </c>
       <c r="N97">
-        <v>161.2696647644043</v>
+        <v>55.21059036254883</v>
       </c>
     </row>
     <row r="98" spans="1:14">
@@ -9259,10 +9259,10 @@
         <v>0</v>
       </c>
       <c r="M98">
-        <v>161.2696647644043</v>
+        <v>55.21059036254883</v>
       </c>
       <c r="N98">
-        <v>161.2696647644043</v>
+        <v>55.21059036254883</v>
       </c>
     </row>
     <row r="99" spans="1:14">
@@ -9300,13 +9300,13 @@
         <v>3</v>
       </c>
       <c r="L99">
-        <v>15.21921157836914</v>
+        <v>4.991292953491211</v>
       </c>
       <c r="M99">
-        <v>12.01677322387695</v>
+        <v>5.012035369873047</v>
       </c>
       <c r="N99">
-        <v>27.23598480224609</v>
+        <v>10.00332832336426</v>
       </c>
     </row>
     <row r="100" spans="1:14">
@@ -9344,13 +9344,13 @@
         <v>3</v>
       </c>
       <c r="L100">
-        <v>15.21921157836914</v>
+        <v>4.991292953491211</v>
       </c>
       <c r="M100">
-        <v>12.01677322387695</v>
+        <v>5.012035369873047</v>
       </c>
       <c r="N100">
-        <v>27.23598480224609</v>
+        <v>10.00332832336426</v>
       </c>
     </row>
     <row r="101" spans="1:14">
@@ -9388,13 +9388,13 @@
         <v>3</v>
       </c>
       <c r="L101">
-        <v>15.21921157836914</v>
+        <v>4.991292953491211</v>
       </c>
       <c r="M101">
-        <v>12.01677322387695</v>
+        <v>5.012035369873047</v>
       </c>
       <c r="N101">
-        <v>27.23598480224609</v>
+        <v>10.00332832336426</v>
       </c>
     </row>
     <row r="102" spans="1:14">
@@ -9435,10 +9435,10 @@
         <v>0</v>
       </c>
       <c r="M102">
-        <v>13.93413543701172</v>
+        <v>10.00785827636719</v>
       </c>
       <c r="N102">
-        <v>13.93413543701172</v>
+        <v>10.00785827636719</v>
       </c>
     </row>
     <row r="103" spans="1:14">
@@ -9476,13 +9476,13 @@
         <v>0</v>
       </c>
       <c r="L103">
-        <v>33.00619125366211</v>
+        <v>12.98832893371582</v>
       </c>
       <c r="M103">
         <v>0</v>
       </c>
       <c r="N103">
-        <v>33.00619125366211</v>
+        <v>12.98832893371582</v>
       </c>
     </row>
     <row r="104" spans="1:14">
@@ -9523,10 +9523,10 @@
         <v>0</v>
       </c>
       <c r="M104">
-        <v>17.01164245605469</v>
+        <v>5.960226058959961</v>
       </c>
       <c r="N104">
-        <v>17.01164245605469</v>
+        <v>5.960226058959961</v>
       </c>
     </row>
     <row r="105" spans="1:14">
@@ -9564,13 +9564,13 @@
         <v>1</v>
       </c>
       <c r="L105">
-        <v>88.77944946289062</v>
+        <v>15.98763465881348</v>
       </c>
       <c r="M105">
-        <v>8.996725082397461</v>
+        <v>1.000404357910156</v>
       </c>
       <c r="N105">
-        <v>97.77617454528809</v>
+        <v>16.98803901672363</v>
       </c>
     </row>
     <row r="106" spans="1:14">
@@ -9611,10 +9611,10 @@
         <v>0</v>
       </c>
       <c r="M106">
-        <v>203.9332389831543</v>
+        <v>39.22796249389648</v>
       </c>
       <c r="N106">
-        <v>203.9332389831543</v>
+        <v>39.22796249389648</v>
       </c>
     </row>
     <row r="107" spans="1:14">
@@ -9652,13 +9652,13 @@
         <v>1</v>
       </c>
       <c r="L107">
-        <v>31.59499168395996</v>
+        <v>4.997491836547852</v>
       </c>
       <c r="M107">
-        <v>13.16571235656738</v>
+        <v>2.999305725097656</v>
       </c>
       <c r="N107">
-        <v>44.76070404052734</v>
+        <v>7.996797561645508</v>
       </c>
     </row>
     <row r="108" spans="1:14">
@@ -9699,10 +9699,10 @@
         <v>0</v>
       </c>
       <c r="M108">
-        <v>167.7925586700439</v>
+        <v>35.37106513977051</v>
       </c>
       <c r="N108">
-        <v>167.7925586700439</v>
+        <v>35.37106513977051</v>
       </c>
     </row>
     <row r="109" spans="1:14">
@@ -9740,13 +9740,13 @@
         <v>2</v>
       </c>
       <c r="L109">
-        <v>21.90756797790527</v>
+        <v>5.545377731323242</v>
       </c>
       <c r="M109">
-        <v>16.00503921508789</v>
+        <v>2.999067306518555</v>
       </c>
       <c r="N109">
-        <v>37.91260719299316</v>
+        <v>8.544445037841797</v>
       </c>
     </row>
     <row r="110" spans="1:14">
@@ -9784,13 +9784,13 @@
         <v>2</v>
       </c>
       <c r="L110">
-        <v>21.90756797790527</v>
+        <v>5.545377731323242</v>
       </c>
       <c r="M110">
-        <v>16.00503921508789</v>
+        <v>2.999067306518555</v>
       </c>
       <c r="N110">
-        <v>37.91260719299316</v>
+        <v>8.544445037841797</v>
       </c>
     </row>
     <row r="111" spans="1:14">
@@ -9831,10 +9831,10 @@
         <v>0</v>
       </c>
       <c r="M111">
-        <v>116.7054176330566</v>
+        <v>21.99888229370117</v>
       </c>
       <c r="N111">
-        <v>116.7054176330566</v>
+        <v>21.99888229370117</v>
       </c>
     </row>
     <row r="112" spans="1:14">
@@ -9872,13 +9872,13 @@
         <v>0</v>
       </c>
       <c r="L112">
-        <v>36.05294227600098</v>
+        <v>7.001638412475586</v>
       </c>
       <c r="M112">
         <v>0</v>
       </c>
       <c r="N112">
-        <v>36.05294227600098</v>
+        <v>7.001638412475586</v>
       </c>
     </row>
     <row r="113" spans="1:14">
@@ -9919,10 +9919,10 @@
         <v>0</v>
       </c>
       <c r="M113">
-        <v>76.90000534057617</v>
+        <v>34.03639793395996</v>
       </c>
       <c r="N113">
-        <v>76.90000534057617</v>
+        <v>34.03639793395996</v>
       </c>
     </row>
     <row r="114" spans="1:14">
@@ -9960,13 +9960,13 @@
         <v>0</v>
       </c>
       <c r="L114">
-        <v>65.64617156982422</v>
+        <v>20.01690864562988</v>
       </c>
       <c r="M114">
         <v>0</v>
       </c>
       <c r="N114">
-        <v>65.64617156982422</v>
+        <v>20.01690864562988</v>
       </c>
     </row>
     <row r="115" spans="1:14">
@@ -10004,13 +10004,13 @@
         <v>10</v>
       </c>
       <c r="L115">
-        <v>0.99945068359375</v>
+        <v>0</v>
       </c>
       <c r="M115">
-        <v>77.09598541259766</v>
+        <v>28.9008617401123</v>
       </c>
       <c r="N115">
-        <v>78.09543609619141</v>
+        <v>28.9008617401123</v>
       </c>
     </row>
     <row r="116" spans="1:14">
@@ -10048,13 +10048,13 @@
         <v>1</v>
       </c>
       <c r="L116">
-        <v>56.42127990722656</v>
+        <v>22.11570739746094</v>
       </c>
       <c r="M116">
-        <v>10.08152961730957</v>
+        <v>3.004074096679688</v>
       </c>
       <c r="N116">
-        <v>66.50280952453613</v>
+        <v>25.11978149414062</v>
       </c>
     </row>
     <row r="117" spans="1:14">
@@ -10092,13 +10092,13 @@
         <v>2</v>
       </c>
       <c r="L117">
-        <v>14.98126983642578</v>
+        <v>3.986120223999023</v>
       </c>
       <c r="M117">
-        <v>12.05348968505859</v>
+        <v>3.000020980834961</v>
       </c>
       <c r="N117">
-        <v>27.03475952148438</v>
+        <v>6.986141204833984</v>
       </c>
     </row>
     <row r="118" spans="1:14">
@@ -10136,13 +10136,13 @@
         <v>2</v>
       </c>
       <c r="L118">
-        <v>14.98126983642578</v>
+        <v>3.986120223999023</v>
       </c>
       <c r="M118">
-        <v>12.05348968505859</v>
+        <v>3.000020980834961</v>
       </c>
       <c r="N118">
-        <v>27.03475952148438</v>
+        <v>6.986141204833984</v>
       </c>
     </row>
     <row r="119" spans="1:14">
@@ -10180,13 +10180,13 @@
         <v>2</v>
       </c>
       <c r="L119">
-        <v>24.09672737121582</v>
+        <v>6.667375564575195</v>
       </c>
       <c r="M119">
-        <v>18.61071586608887</v>
+        <v>5.9967041015625</v>
       </c>
       <c r="N119">
-        <v>42.70744323730469</v>
+        <v>12.6640796661377</v>
       </c>
     </row>
     <row r="120" spans="1:14">
@@ -10224,13 +10224,13 @@
         <v>2</v>
       </c>
       <c r="L120">
-        <v>24.09672737121582</v>
+        <v>6.667375564575195</v>
       </c>
       <c r="M120">
-        <v>18.61071586608887</v>
+        <v>5.9967041015625</v>
       </c>
       <c r="N120">
-        <v>42.70744323730469</v>
+        <v>12.6640796661377</v>
       </c>
     </row>
     <row r="121" spans="1:14">
@@ -10268,13 +10268,13 @@
         <v>2</v>
       </c>
       <c r="L121">
-        <v>24.66964721679688</v>
+        <v>9.058713912963867</v>
       </c>
       <c r="M121">
-        <v>23.26393127441406</v>
+        <v>9.058475494384766</v>
       </c>
       <c r="N121">
-        <v>47.93357849121094</v>
+        <v>18.11718940734863</v>
       </c>
     </row>
     <row r="122" spans="1:14">
@@ -10312,13 +10312,13 @@
         <v>2</v>
       </c>
       <c r="L122">
-        <v>24.66964721679688</v>
+        <v>9.058713912963867</v>
       </c>
       <c r="M122">
-        <v>23.26393127441406</v>
+        <v>9.058475494384766</v>
       </c>
       <c r="N122">
-        <v>47.93357849121094</v>
+        <v>18.11718940734863</v>
       </c>
     </row>
     <row r="123" spans="1:14">
@@ -10356,13 +10356,13 @@
         <v>4</v>
       </c>
       <c r="L123">
-        <v>63.73381614685059</v>
+        <v>17.22240447998047</v>
       </c>
       <c r="M123">
-        <v>107.7010631561279</v>
+        <v>27.70376205444336</v>
       </c>
       <c r="N123">
-        <v>171.4348793029785</v>
+        <v>44.92616653442383</v>
       </c>
     </row>
     <row r="124" spans="1:14">
@@ -10400,13 +10400,13 @@
         <v>4</v>
       </c>
       <c r="L124">
-        <v>63.73381614685059</v>
+        <v>17.22240447998047</v>
       </c>
       <c r="M124">
-        <v>107.7010631561279</v>
+        <v>27.70376205444336</v>
       </c>
       <c r="N124">
-        <v>171.4348793029785</v>
+        <v>44.92616653442383</v>
       </c>
     </row>
     <row r="125" spans="1:14">
@@ -10447,10 +10447,10 @@
         <v>0</v>
       </c>
       <c r="M125">
-        <v>564.1281604766846</v>
+        <v>187.4191761016846</v>
       </c>
       <c r="N125">
-        <v>564.1281604766846</v>
+        <v>187.4191761016846</v>
       </c>
     </row>
     <row r="126" spans="1:14">
@@ -10491,10 +10491,10 @@
         <v>0</v>
       </c>
       <c r="M126">
-        <v>564.1281604766846</v>
+        <v>187.4191761016846</v>
       </c>
       <c r="N126">
-        <v>564.1281604766846</v>
+        <v>187.4191761016846</v>
       </c>
     </row>
     <row r="127" spans="1:14">
@@ -10535,10 +10535,10 @@
         <v>0</v>
       </c>
       <c r="M127">
-        <v>564.1281604766846</v>
+        <v>187.4191761016846</v>
       </c>
       <c r="N127">
-        <v>564.1281604766846</v>
+        <v>187.4191761016846</v>
       </c>
     </row>
     <row r="128" spans="1:14">
@@ -10579,10 +10579,10 @@
         <v>0</v>
       </c>
       <c r="M128">
-        <v>564.1281604766846</v>
+        <v>187.4191761016846</v>
       </c>
       <c r="N128">
-        <v>564.1281604766846</v>
+        <v>187.4191761016846</v>
       </c>
     </row>
     <row r="129" spans="1:14">
@@ -10623,10 +10623,10 @@
         <v>0</v>
       </c>
       <c r="M129">
-        <v>564.1281604766846</v>
+        <v>187.4191761016846</v>
       </c>
       <c r="N129">
-        <v>564.1281604766846</v>
+        <v>187.4191761016846</v>
       </c>
     </row>
     <row r="130" spans="1:14">
@@ -10667,10 +10667,10 @@
         <v>0</v>
       </c>
       <c r="M130">
-        <v>564.1281604766846</v>
+        <v>187.4191761016846</v>
       </c>
       <c r="N130">
-        <v>564.1281604766846</v>
+        <v>187.4191761016846</v>
       </c>
     </row>
     <row r="131" spans="1:14">
@@ -10708,13 +10708,13 @@
         <v>4</v>
       </c>
       <c r="L131">
-        <v>55.6938648223877</v>
+        <v>24.48391914367676</v>
       </c>
       <c r="M131">
-        <v>239.8662567138672</v>
+        <v>67.46840476989746</v>
       </c>
       <c r="N131">
-        <v>295.5601215362549</v>
+        <v>91.95232391357422</v>
       </c>
     </row>
     <row r="132" spans="1:14">
@@ -10752,13 +10752,13 @@
         <v>4</v>
       </c>
       <c r="L132">
-        <v>55.6938648223877</v>
+        <v>24.48391914367676</v>
       </c>
       <c r="M132">
-        <v>239.8662567138672</v>
+        <v>67.46840476989746</v>
       </c>
       <c r="N132">
-        <v>295.5601215362549</v>
+        <v>91.95232391357422</v>
       </c>
     </row>
     <row r="133" spans="1:14">
@@ -10796,13 +10796,13 @@
         <v>4</v>
       </c>
       <c r="L133">
-        <v>55.6938648223877</v>
+        <v>24.48391914367676</v>
       </c>
       <c r="M133">
-        <v>239.8662567138672</v>
+        <v>67.46840476989746</v>
       </c>
       <c r="N133">
-        <v>295.5601215362549</v>
+        <v>91.95232391357422</v>
       </c>
     </row>
     <row r="134" spans="1:14">
@@ -10840,13 +10840,13 @@
         <v>4</v>
       </c>
       <c r="L134">
-        <v>55.6938648223877</v>
+        <v>24.48391914367676</v>
       </c>
       <c r="M134">
-        <v>239.8662567138672</v>
+        <v>67.46840476989746</v>
       </c>
       <c r="N134">
-        <v>295.5601215362549</v>
+        <v>91.95232391357422</v>
       </c>
     </row>
   </sheetData>
@@ -10896,7 +10896,7 @@
         <v>1.02</v>
       </c>
       <c r="E2">
-        <v>109.8717594146729</v>
+        <v>37.78591632843018</v>
       </c>
     </row>
     <row r="3" spans="1:5">
@@ -10913,7 +10913,7 @@
         <v>1.64</v>
       </c>
       <c r="E3">
-        <v>61.4830207824707</v>
+        <v>18.94248962402344</v>
       </c>
     </row>
   </sheetData>
